--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Jamming_test/Random/Compare_Figure.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Jamming_test/Random/Compare_Figure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据（SWIB）\Jamming_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据（SWIB）\Jamming_test\Random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90133BE-F61F-49D7-A647-EEDF1C6A0133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AFC219-13EB-44BE-BEF9-3C3ADFEAA99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latency" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>Jamming Bound</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,34 +224,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.29277500000000001</c:v>
+                  <c:v>3.5048849999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28777999999999998</c:v>
+                  <c:v>1.9657800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28960999999999998</c:v>
+                  <c:v>1.3882399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29071999999999998</c:v>
+                  <c:v>1.0712550000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28888999999999998</c:v>
+                  <c:v>0.90558000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28938999999999998</c:v>
+                  <c:v>0.76467499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28987000000000002</c:v>
+                  <c:v>0.67795000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28940500000000002</c:v>
+                  <c:v>0.604105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28794500000000001</c:v>
+                  <c:v>0.55446499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28894999999999998</c:v>
+                  <c:v>0.50582499999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -340,34 +340,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.30170000000000002</c:v>
+                  <c:v>4.3538100000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29632999999999998</c:v>
+                  <c:v>2.4030049999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29768</c:v>
+                  <c:v>1.720925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29630000000000001</c:v>
+                  <c:v>1.3285149999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29622999999999999</c:v>
+                  <c:v>1.0834349999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29548999999999997</c:v>
+                  <c:v>0.924315</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29613499999999998</c:v>
+                  <c:v>0.80988000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29510500000000001</c:v>
+                  <c:v>0.72985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29851</c:v>
+                  <c:v>0.65298500000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29573500000000003</c:v>
+                  <c:v>0.60551999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,34 +456,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.95099999999999996</c:v>
+                  <c:v>6.6258249999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57482800000000001</c:v>
+                  <c:v>4.0736150000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46117599999999997</c:v>
+                  <c:v>3.200745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40858800000000001</c:v>
+                  <c:v>2.2732450000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36211500000000002</c:v>
+                  <c:v>1.973015</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35281499999999999</c:v>
+                  <c:v>1.624325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.318934</c:v>
+                  <c:v>1.3826449999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31916899999999998</c:v>
+                  <c:v>1.269835</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29977300000000001</c:v>
+                  <c:v>1.1972499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29104099999999999</c:v>
+                  <c:v>1.00319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,128 +492,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8C83-446F-8043-5AD3287B100B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>700</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Latency!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Latency!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.277164</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71244600000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.55285899999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48813499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.40620699999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.38177499999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34961900000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.34364299999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.319351</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.31816699999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8C83-446F-8043-5AD3287B100B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -940,6 +818,2047 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Latency(Random)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Latency!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.6258249999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0736150000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.200745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2732450000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.973015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.624325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3826449999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.269835</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1972499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.00319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DFE-42C3-A6D8-E78FE185537B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Latency(Bursty)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Latency!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.29663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29627500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.295155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29645500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29586000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29542000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29653499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29809999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3DFE-42C3-A6D8-E78FE185537B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1986035215"/>
+        <c:axId val="1986035631"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Throughput(Random)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Latency!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1612</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1709</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3DFE-42C3-A6D8-E78FE185537B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Throughput(Bursty)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Latency!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$N$2:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6918</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6929</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3DFE-42C3-A6D8-E78FE185537B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="193156911"/>
+        <c:axId val="193161487"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1986035215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Delta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986035631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1986035631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Latency(sec.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986035215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="193161487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Throughput(TPS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193156911"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="193156911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="193161487"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Random</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Latency!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Latency!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.6258249999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0736150000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.200745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2732450000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.973015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.624325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3826449999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.269835</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1972499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.00319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61F3-4E74-A07F-1D948CDA199A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bursty</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Latency!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Latency!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.29663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29627500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.295155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29645500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29586000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29542000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29653499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29809999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-61F3-4E74-A07F-1D948CDA199A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="194873039"/>
+        <c:axId val="194871791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="194873039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Delta</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="194871791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="194871791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Latency(sec.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="194873039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33283573928258975"/>
+          <c:y val="0.84780037911927675"/>
+          <c:w val="0.37321719160104988"/>
+          <c:h val="0.10590332458442693"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Random</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Latency!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Latency!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1612</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1709</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC92-4CEC-8668-29A0C71E0E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bursty</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Latency!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Latency!$N$2:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6918</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6929</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC92-4CEC-8668-29A0C71E0E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="239601551"/>
+        <c:axId val="239601967"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="239601551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Delta</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239601967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="239601967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Throughput(TPS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.24009623797025373"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239601551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3050579615048119"/>
+          <c:y val="0.8616892680081657"/>
+          <c:w val="0.38988385826771654"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
@@ -1030,34 +2949,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6991</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7113</c:v>
+                  <c:v>1041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7068</c:v>
+                  <c:v>1474</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7041</c:v>
+                  <c:v>1910</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7085</c:v>
+                  <c:v>2260</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7073</c:v>
+                  <c:v>2676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7061</c:v>
+                  <c:v>3019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7073</c:v>
+                  <c:v>3388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7108</c:v>
+                  <c:v>3691</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7084</c:v>
+                  <c:v>4046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,34 +3065,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6784</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6907</c:v>
+                  <c:v>851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6876</c:v>
+                  <c:v>1189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6908</c:v>
+                  <c:v>1540</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6910</c:v>
+                  <c:v>1889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6927</c:v>
+                  <c:v>2214</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6912</c:v>
+                  <c:v>2527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6936</c:v>
+                  <c:v>2804</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6857</c:v>
+                  <c:v>3134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6921</c:v>
+                  <c:v>3380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,34 +3181,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2152</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3561</c:v>
+                  <c:v>502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4438</c:v>
+                  <c:v>639</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5009</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5652</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5801</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6418</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6413</c:v>
+                  <c:v>1612</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6828</c:v>
+                  <c:v>1709</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7033</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,128 +3217,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6924-467B-9727-B9211580A51A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>700</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Throughput!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Throughput!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1602</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2873</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3702</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4193</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5039</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5361</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5854</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6409</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6433</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6924-467B-9727-B9211580A51A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1544,7 +3341,7 @@
         <c:axId val="1581691455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="5000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1657,8 +3454,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74362386432465177"/>
-          <c:y val="0.38742678546760601"/>
+          <c:x val="0.19747001817080562"/>
+          <c:y val="7.6023276695676184E-2"/>
           <c:w val="0.14216666666666666"/>
           <c:h val="0.31250218722659673"/>
         </c:manualLayout>
@@ -1803,6 +3600,117 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2320,6 +4228,1541 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2868,6 +6311,241 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BD2F50-3E69-9511-441F-A78B0384210B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="113236" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="文本框 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960A22CB-7A66-913D-EAD7-5B67E93536AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7381875" y="4705350"/>
+              <a:ext cx="113236" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝛿</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="文本框 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960A22CB-7A66-913D-EAD7-5B67E93536AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7381875" y="4705350"/>
+              <a:ext cx="113236" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛿</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7719D747-5EA2-4A24-41CE-776659996E71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF779A9-2A5D-8264-5EF0-5D9AD3690E12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3180,18 +6858,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="14" width="14.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3207,175 +6886,340 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>0.29277500000000001</v>
+        <v>3.5048849999999998</v>
       </c>
       <c r="C2">
-        <v>0.30170000000000002</v>
+        <v>4.3538100000000002</v>
       </c>
       <c r="D2">
-        <v>0.95099999999999996</v>
+        <v>6.6258249999999999</v>
       </c>
       <c r="E2">
         <v>1.277164</v>
       </c>
+      <c r="J2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K2">
+        <v>6.6258249999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.29663</v>
+      </c>
+      <c r="M2">
+        <v>308</v>
+      </c>
+      <c r="N2">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>0.28777999999999998</v>
+        <v>1.9657800000000001</v>
       </c>
       <c r="C3">
-        <v>0.29632999999999998</v>
+        <v>2.4030049999999998</v>
       </c>
       <c r="D3">
-        <v>0.57482800000000001</v>
+        <v>4.0736150000000002</v>
       </c>
       <c r="E3">
         <v>0.71244600000000002</v>
       </c>
+      <c r="J3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K3">
+        <v>4.0736150000000002</v>
+      </c>
+      <c r="L3">
+        <v>0.29627500000000001</v>
+      </c>
+      <c r="M3">
+        <v>502</v>
+      </c>
+      <c r="N3">
+        <v>6909</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.15</v>
       </c>
       <c r="B4">
-        <v>0.28960999999999998</v>
+        <v>1.3882399999999999</v>
       </c>
       <c r="C4">
-        <v>0.29768</v>
+        <v>1.720925</v>
       </c>
       <c r="D4">
-        <v>0.46117599999999997</v>
+        <v>3.200745</v>
       </c>
       <c r="E4">
         <v>0.55285899999999999</v>
       </c>
+      <c r="J4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K4">
+        <v>3.200745</v>
+      </c>
+      <c r="L4">
+        <v>0.295155</v>
+      </c>
+      <c r="M4">
+        <v>639</v>
+      </c>
+      <c r="N4">
+        <v>6935</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
       <c r="B5">
-        <v>0.29071999999999998</v>
+        <v>1.0712550000000001</v>
       </c>
       <c r="C5">
-        <v>0.29630000000000001</v>
+        <v>1.3285149999999999</v>
       </c>
       <c r="D5">
-        <v>0.40858800000000001</v>
+        <v>2.2732450000000002</v>
       </c>
       <c r="E5">
         <v>0.48813499999999999</v>
       </c>
+      <c r="J5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>2.2732450000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.29645500000000002</v>
+      </c>
+      <c r="M5">
+        <v>900</v>
+      </c>
+      <c r="N5">
+        <v>6904</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.25</v>
       </c>
       <c r="B6">
-        <v>0.28888999999999998</v>
+        <v>0.90558000000000005</v>
       </c>
       <c r="C6">
-        <v>0.29622999999999999</v>
+        <v>1.0834349999999999</v>
       </c>
       <c r="D6">
-        <v>0.36211500000000002</v>
+        <v>1.973015</v>
       </c>
       <c r="E6">
         <v>0.40620699999999998</v>
       </c>
+      <c r="J6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K6">
+        <v>1.973015</v>
+      </c>
+      <c r="L6">
+        <v>0.29402</v>
+      </c>
+      <c r="M6">
+        <v>1037</v>
+      </c>
+      <c r="N6">
+        <v>6962</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>0.28938999999999998</v>
+        <v>0.76467499999999999</v>
       </c>
       <c r="C7">
-        <v>0.29548999999999997</v>
+        <v>0.924315</v>
       </c>
       <c r="D7">
-        <v>0.35281499999999999</v>
+        <v>1.624325</v>
       </c>
       <c r="E7">
         <v>0.38177499999999998</v>
       </c>
+      <c r="J7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K7">
+        <v>1.624325</v>
+      </c>
+      <c r="L7">
+        <v>0.29586000000000001</v>
+      </c>
+      <c r="M7">
+        <v>1260</v>
+      </c>
+      <c r="N7">
+        <v>6918</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.35</v>
       </c>
       <c r="B8">
-        <v>0.28987000000000002</v>
+        <v>0.67795000000000005</v>
       </c>
       <c r="C8">
-        <v>0.29613499999999998</v>
+        <v>0.80988000000000004</v>
       </c>
       <c r="D8">
-        <v>0.318934</v>
+        <v>1.3826449999999999</v>
       </c>
       <c r="E8">
         <v>0.34961900000000001</v>
       </c>
+      <c r="J8" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="K8">
+        <v>1.3826449999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.29542000000000002</v>
+      </c>
+      <c r="M8">
+        <v>1480</v>
+      </c>
+      <c r="N8">
+        <v>6929</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>0.28940500000000002</v>
+        <v>0.604105</v>
       </c>
       <c r="C9">
-        <v>0.29510500000000001</v>
+        <v>0.72985</v>
       </c>
       <c r="D9">
-        <v>0.31916899999999998</v>
+        <v>1.269835</v>
       </c>
       <c r="E9">
         <v>0.34364299999999998</v>
       </c>
+      <c r="J9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K9">
+        <v>1.269835</v>
+      </c>
+      <c r="L9">
+        <v>0.29625000000000001</v>
+      </c>
+      <c r="M9">
+        <v>1612</v>
+      </c>
+      <c r="N9">
+        <v>6909</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.45</v>
       </c>
       <c r="B10">
-        <v>0.28794500000000001</v>
+        <v>0.55446499999999999</v>
       </c>
       <c r="C10">
-        <v>0.29851</v>
+        <v>0.65298500000000004</v>
       </c>
       <c r="D10">
-        <v>0.29977300000000001</v>
+        <v>1.1972499999999999</v>
       </c>
       <c r="E10">
         <v>0.319351</v>
       </c>
+      <c r="J10" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K10">
+        <v>1.1972499999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.29653499999999999</v>
+      </c>
+      <c r="M10">
+        <v>1709</v>
+      </c>
+      <c r="N10">
+        <v>6903</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
       <c r="B11">
-        <v>0.28894999999999998</v>
+        <v>0.50582499999999997</v>
       </c>
       <c r="C11">
-        <v>0.29573500000000003</v>
+        <v>0.60551999999999995</v>
       </c>
       <c r="D11">
-        <v>0.29104099999999999</v>
+        <v>1.00319</v>
       </c>
       <c r="E11">
         <v>0.31816699999999998</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <v>1.00319</v>
+      </c>
+      <c r="L11">
+        <v>0.29809999999999998</v>
+      </c>
+      <c r="M11">
+        <v>2040</v>
+      </c>
+      <c r="N11">
+        <v>6866</v>
       </c>
     </row>
   </sheetData>
@@ -3389,8 +7233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D85C92-799B-4290-AE89-6C7FFAAECB70}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3420,13 +7264,13 @@
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>6991</v>
+        <v>584</v>
       </c>
       <c r="C2">
-        <v>6784</v>
+        <v>470</v>
       </c>
       <c r="D2">
-        <v>2152</v>
+        <v>308</v>
       </c>
       <c r="E2">
         <v>1602</v>
@@ -3437,13 +7281,13 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>7113</v>
+        <v>1041</v>
       </c>
       <c r="C3">
-        <v>6907</v>
+        <v>851</v>
       </c>
       <c r="D3">
-        <v>3561</v>
+        <v>502</v>
       </c>
       <c r="E3">
         <v>2873</v>
@@ -3454,13 +7298,13 @@
         <v>0.15</v>
       </c>
       <c r="B4">
-        <v>7068</v>
+        <v>1474</v>
       </c>
       <c r="C4">
-        <v>6876</v>
+        <v>1189</v>
       </c>
       <c r="D4">
-        <v>4438</v>
+        <v>639</v>
       </c>
       <c r="E4">
         <v>3702</v>
@@ -3471,13 +7315,13 @@
         <v>0.2</v>
       </c>
       <c r="B5">
-        <v>7041</v>
+        <v>1910</v>
       </c>
       <c r="C5">
-        <v>6908</v>
+        <v>1540</v>
       </c>
       <c r="D5">
-        <v>5009</v>
+        <v>900</v>
       </c>
       <c r="E5">
         <v>4193</v>
@@ -3488,13 +7332,13 @@
         <v>0.25</v>
       </c>
       <c r="B6">
-        <v>7085</v>
+        <v>2260</v>
       </c>
       <c r="C6">
-        <v>6910</v>
+        <v>1889</v>
       </c>
       <c r="D6">
-        <v>5652</v>
+        <v>1037</v>
       </c>
       <c r="E6">
         <v>5039</v>
@@ -3505,13 +7349,13 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>7073</v>
+        <v>2676</v>
       </c>
       <c r="C7">
-        <v>6927</v>
+        <v>2214</v>
       </c>
       <c r="D7">
-        <v>5801</v>
+        <v>1260</v>
       </c>
       <c r="E7">
         <v>5361</v>
@@ -3522,13 +7366,13 @@
         <v>0.35</v>
       </c>
       <c r="B8">
-        <v>7061</v>
+        <v>3019</v>
       </c>
       <c r="C8">
-        <v>6912</v>
+        <v>2527</v>
       </c>
       <c r="D8">
-        <v>6418</v>
+        <v>1480</v>
       </c>
       <c r="E8">
         <v>5854</v>
@@ -3539,13 +7383,13 @@
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>7073</v>
+        <v>3388</v>
       </c>
       <c r="C9">
-        <v>6936</v>
+        <v>2804</v>
       </c>
       <c r="D9">
-        <v>6413</v>
+        <v>1612</v>
       </c>
       <c r="E9">
         <v>5956</v>
@@ -3556,13 +7400,13 @@
         <v>0.45</v>
       </c>
       <c r="B10">
-        <v>7108</v>
+        <v>3691</v>
       </c>
       <c r="C10">
-        <v>6857</v>
+        <v>3134</v>
       </c>
       <c r="D10">
-        <v>6828</v>
+        <v>1709</v>
       </c>
       <c r="E10">
         <v>6409</v>
@@ -3573,13 +7417,13 @@
         <v>0.5</v>
       </c>
       <c r="B11">
-        <v>7084</v>
+        <v>4046</v>
       </c>
       <c r="C11">
-        <v>6921</v>
+        <v>3380</v>
       </c>
       <c r="D11">
-        <v>7033</v>
+        <v>2040</v>
       </c>
       <c r="E11">
         <v>6433</v>
